--- a/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,11 +27,11 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (26.10.2023 16:21:32): 
+          <t>Администратор (06.12.2023 11:42:31): 
 Первая ячейка
-Бюджетирование1 (26.10.2023 16:21:33): 
+Администратор (06.12.2023 11:42:32): 
 Первая ячейка 2
-Бюджетирование1 (26.10.2023 16:21:38): 
+Администратор (06.12.2023 11:42:36): 
 Первая ячейка 3</t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (26.10.2023 16:21:33): 
+          <t>Администратор (06.12.2023 11:42:31): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -536,9 +536,7 @@
       <c r="S4" s="11" t="n">
         <v>21000</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T4" s="12" t="e"/>
       <c r="U4" s="13" t="e"/>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -593,9 +591,7 @@
       <c r="S5" s="11" t="n">
         <v>4200</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T5" s="12" t="e"/>
       <c r="U5" s="13" t="e"/>
     </row>
     <row r="6" ht="11" customHeight="true" outlineLevel="1">
@@ -656,9 +652,7 @@
       <c r="S6" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T6" s="12" t="e"/>
       <c r="U6" s="13" t="e"/>
     </row>
     <row r="7" ht="11" customHeight="true" outlineLevel="1">
@@ -719,9 +713,7 @@
       <c r="S7" s="10" t="n">
         <v>560</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T7" s="12" t="e"/>
       <c r="U7" s="13" t="e"/>
     </row>
     <row r="8" ht="23" customHeight="true" outlineLevel="1">
@@ -782,9 +774,7 @@
       <c r="S8" s="10" t="n">
         <v>840</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T8" s="12" t="e"/>
       <c r="U8" s="13" t="e"/>
     </row>
     <row r="9" ht="11" customHeight="true" outlineLevel="1">
@@ -845,9 +835,7 @@
       <c r="S9" s="11" t="n">
         <v>1120</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T9" s="12" t="e"/>
       <c r="U9" s="13" t="e"/>
     </row>
     <row r="10" ht="23" customHeight="true" outlineLevel="1">
@@ -908,9 +896,7 @@
       <c r="S10" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="T10" s="12" t="e"/>
       <c r="U10" s="13" t="e"/>
     </row>
   </sheetData>

--- a/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,12 +27,12 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (06.12.2023 11:42:31): 
-Первая ячейка
-Администратор (06.12.2023 11:42:32): 
-Первая ячейка 2
-Администратор (06.12.2023 11:42:36): 
-Первая ячейка 3</t>
+          <t>Budgeting1 (12/20/2023 7:52:23 PM): 
+First cell
+Budgeting1 (12/20/2023 7:52:24 PM): 
+First cell 2
+Budgeting1 (12/20/2023 7:52:29 PM): 
+First cell 3</t>
         </r>
       </text>
     </comment>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (06.12.2023 11:42:31): 
+          <t>Budgeting1 (12/20/2023 7:52:24 PM): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -56,58 +56,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>ВА - Контекстный пересчет (сводная таблица)</t>
-  </si>
-  <si>
-    <t>Январь 2024 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2024 г.</t>
-  </si>
-  <si>
-    <t>Март 2024 г.</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Коэффициент</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Строка</t>
-  </si>
-  <si>
-    <t>01.01.2024</t>
-  </si>
-  <si>
-    <t>Товары</t>
-  </si>
-  <si>
-    <t>1С:Управление холдингом 8</t>
-  </si>
-  <si>
-    <t>Строка1</t>
-  </si>
-  <si>
-    <t>1С:Корпорация</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8.3 КОРП. Лицензия на сервер (x86-64)</t>
-  </si>
-  <si>
-    <t>1С:ERP. Управление холдингом</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8 КОРП. Клиентская лицензия на 100 рабочих мест</t>
+    <t>VA - Recalculation in context (pivot table)</t>
+  </si>
+  <si>
+    <t>January 2024</t>
+  </si>
+  <si>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>5C:Corporate performance management</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>4C:Enterprise 8.3 CORP. Server License (x86-64)</t>
+  </si>
+  <si>
+    <t>1C:ERP. Corporate performance management</t>
+  </si>
+  <si>
+    <t>3C:Enterprise 8 CORP. Client license for 100 users</t>
   </si>
 </sst>
 </file>

--- a/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,11 +27,11 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (06.12.2023 11:42:31): 
+          <t>Бюджетирование1 (05.03.2024 20:01:09): 
 Первая ячейка
-Администратор (06.12.2023 11:42:32): 
+Бюджетирование1 (05.03.2024 20:01:09): 
 Первая ячейка 2
-Администратор (06.12.2023 11:42:36): 
+Бюджетирование1 (05.03.2024 20:01:14): 
 Первая ячейка 3</t>
         </r>
       </text>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Администратор (06.12.2023 11:42:31): 
+          <t>Бюджетирование1 (05.03.2024 20:01:09): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -536,7 +536,9 @@
       <c r="S4" s="11" t="n">
         <v>21000</v>
       </c>
-      <c r="T4" s="12" t="e"/>
+      <c r="T4" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U4" s="13" t="e"/>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -591,7 +593,9 @@
       <c r="S5" s="11" t="n">
         <v>4200</v>
       </c>
-      <c r="T5" s="12" t="e"/>
+      <c r="T5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U5" s="13" t="e"/>
     </row>
     <row r="6" ht="11" customHeight="true" outlineLevel="1">
@@ -652,7 +656,9 @@
       <c r="S6" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="T6" s="12" t="e"/>
+      <c r="T6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U6" s="13" t="e"/>
     </row>
     <row r="7" ht="11" customHeight="true" outlineLevel="1">
@@ -713,7 +719,9 @@
       <c r="S7" s="10" t="n">
         <v>560</v>
       </c>
-      <c r="T7" s="12" t="e"/>
+      <c r="T7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U7" s="13" t="e"/>
     </row>
     <row r="8" ht="23" customHeight="true" outlineLevel="1">
@@ -774,7 +782,9 @@
       <c r="S8" s="10" t="n">
         <v>840</v>
       </c>
-      <c r="T8" s="12" t="e"/>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U8" s="13" t="e"/>
     </row>
     <row r="9" ht="11" customHeight="true" outlineLevel="1">
@@ -835,7 +845,9 @@
       <c r="S9" s="11" t="n">
         <v>1120</v>
       </c>
-      <c r="T9" s="12" t="e"/>
+      <c r="T9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U9" s="13" t="e"/>
     </row>
     <row r="10" ht="23" customHeight="true" outlineLevel="1">
@@ -896,7 +908,9 @@
       <c r="S10" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="T10" s="12" t="e"/>
+      <c r="T10" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U10" s="13" t="e"/>
     </row>
   </sheetData>

--- a/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
+++ b/Макеты/02/ВА_КонтекстныйПересчетИсходный.xlsx
@@ -27,12 +27,12 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (05.03.2024 20:01:09): 
-Первая ячейка
-Бюджетирование1 (05.03.2024 20:01:09): 
-Первая ячейка 2
-Бюджетирование1 (05.03.2024 20:01:14): 
-Первая ячейка 3</t>
+          <t>Budgeting1 (4/4/2024 11:53:41 AM): 
+First cell
+Budgeting1 (4/4/2024 11:53:42 AM): 
+First cell 2
+Budgeting1 (4/4/2024 11:53:44 AM): 
+First cell 3</t>
         </r>
       </text>
     </comment>
@@ -44,7 +44,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Бюджетирование1 (05.03.2024 20:01:09): 
+          <t>Budgeting1 (4/4/2024 11:53:41 AM): 
 Последняя ячейка</t>
         </r>
       </text>
@@ -56,58 +56,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>ВА - Контекстный пересчет (сводная таблица)</t>
-  </si>
-  <si>
-    <t>Январь 2024 г.</t>
-  </si>
-  <si>
-    <t>Февраль 2024 г.</t>
-  </si>
-  <si>
-    <t>Март 2024 г.</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Коэффициент</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Строка</t>
-  </si>
-  <si>
-    <t>01.01.2024</t>
-  </si>
-  <si>
-    <t>Товары</t>
-  </si>
-  <si>
-    <t>1С:Управление холдингом 8</t>
-  </si>
-  <si>
-    <t>Строка1</t>
-  </si>
-  <si>
-    <t>1С:Корпорация</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8.3 КОРП. Лицензия на сервер (x86-64)</t>
-  </si>
-  <si>
-    <t>1С:ERP. Управление холдингом</t>
-  </si>
-  <si>
-    <t>1С:Предприятие 8 КОРП. Клиентская лицензия на 100 рабочих мест</t>
+    <t>VA - Recalculation in context (pivot table)</t>
+  </si>
+  <si>
+    <t>January 2024</t>
+  </si>
+  <si>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>5C:Corporate performance management</t>
+  </si>
+  <si>
+    <t>Line1</t>
+  </si>
+  <si>
+    <t>2C:Corporation</t>
+  </si>
+  <si>
+    <t>4C:Enterprise 8.3 CORP. Server License (x86-64)</t>
+  </si>
+  <si>
+    <t>1C:ERP. Corporate performance management</t>
+  </si>
+  <si>
+    <t>3C:Enterprise 8 CORP. Client license for 100 users</t>
   </si>
 </sst>
 </file>
